--- a/quality_checks/list of issues.xlsx
+++ b/quality_checks/list of issues.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\gits\assess-total-infection-fatality-burden-of-COVID-19\quality_checks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kikep\OneDrive\Documents\gits\assess-total-infection-fatality-burden-of-COVID-19\quality_checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1874381C-C90F-4960-AC99-A193F6DC1A25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{42F280D7-8B3D-46EB-9139-AD503ACDA884}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="210409" sheetId="1" r:id="rId1"/>
+    <sheet name="210412" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="64">
   <si>
     <t>Brazil</t>
   </si>
@@ -203,12 +202,27 @@
   </si>
   <si>
     <t>ouliers excluded</t>
+  </si>
+  <si>
+    <t>Double source still in Output 5</t>
+  </si>
+  <si>
+    <t>1 month gap</t>
+  </si>
+  <si>
+    <t>large gap</t>
+  </si>
+  <si>
+    <t>Could be replaced by INED source</t>
+  </si>
+  <si>
+    <t>Excluded from series</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -569,22 +583,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33F0AAC-E3CF-4FFE-A0C6-870BAE498688}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
@@ -601,7 +615,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -621,7 +635,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -641,7 +655,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -661,7 +675,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -681,7 +695,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -701,7 +715,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -721,7 +735,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -741,7 +755,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -761,7 +775,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -781,7 +795,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -801,7 +815,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -821,7 +835,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -841,7 +855,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>33</v>
       </c>
@@ -861,7 +875,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -875,7 +889,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -895,7 +909,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -915,7 +929,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -929,7 +943,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -949,7 +963,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -969,7 +983,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -987,15 +1001,109 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9825B136-568A-4138-8E30-54CEB441ABEA}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/quality_checks/list of issues.xlsx
+++ b/quality_checks/list of issues.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="64">
   <si>
     <t>Brazil</t>
   </si>
@@ -587,7 +587,7 @@
   <dimension ref="A2:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:B20"/>
+      <selection activeCell="B19" sqref="B19:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1002,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1083,23 +1083,34 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>61</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>62</v>
       </c>
     </row>
